--- a/módulo 06/aula-segmentacao.xlsx
+++ b/módulo 06/aula-segmentacao.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Google Drive\Curso_Excel\06 Tabelas e filtros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso Excel do básico ao avançado\módulo 06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F869785-FAA8-48F6-83CB-A297C5658BD5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{F2539487-D21A-4125-A214-C7D3564D8767}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Ano">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId2"/>
+        <x14:slicerCache r:id="rId3"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="16">
   <si>
     <t>Mês</t>
   </si>
@@ -71,11 +83,14 @@
   <si>
     <t>Venda Média por Cliente</t>
   </si>
+  <si>
+    <t>Clica em qq lugar na tabela: Design/Filtro/segmentação de dados/Seleciona os dados desejado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -157,7 +172,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -177,32 +191,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -221,10 +209,33 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -245,16 +256,199 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Ano"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ano"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10029825" y="190500"/>
+              <a:ext cx="2124000" cy="1047750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados de tabela. Segmentações de dados de tabela têm suporte no Excel 2013 ou em versões posteriores.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2007 ou em versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Vendedor"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7972425" y="190500"/>
+              <a:ext cx="1828800" cy="2752725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados de tabela. Segmentações de dados de tabela têm suporte no Excel 2013 ou em versões posteriores.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2007 ou em versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Ano" sourceName="Ano">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Vendedor" sourceName="Vendedor">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Ano" cache="SegmentaçãodeDados_Ano" caption="Ano" columnCount="3" style="SlicerStyleLight4" rowHeight="241300"/>
+  <slicer name="Vendedor" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" style="SlicerStyleDark2" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{250E7C4C-A644-466B-B8CC-FD01446EE6BA}" name="Tabela1" displayName="Tabela1" ref="A1:F274" totalsRowCount="1">
-  <autoFilter ref="A1:F273" xr:uid="{85C7D6E6-F346-4FE1-B1A4-FD26EAD91A4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F274" totalsRowCount="1">
+  <autoFilter ref="A1:F273">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2016"/>
+        <filter val="2017"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{417B3A2B-613C-43B2-B366-BF3266F489F4}" name="Mês" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5C4444CE-DB72-4E47-B1B9-75DB797A6B05}" name="Ano" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FC3E5E7E-CF5B-455A-AFD6-D39796C09148}" name="Vendedor"/>
-    <tableColumn id="4" xr3:uid="{E8D86D74-1B11-446D-98B1-C27110111479}" name="Carteira de Clientes" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" xr3:uid="{5F34ACDF-1AD3-4E7A-A0FF-36D87DC06971}" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{BCC22D3A-E48D-4085-BC03-26165DB23202}" name="Venda Média por Cliente" dataCellStyle="Moeda">
+    <tableColumn id="1" name="Mês" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Ano" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Vendedor"/>
+    <tableColumn id="4" name="Carteira de Clientes" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="Venda Média por Cliente" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[[#This Row],[Valor Vendido]]/Tabela1[[#This Row],[Carteira de Clientes]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -558,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11A1E92-3C3A-45FF-899C-3919AE17C6F1}">
-  <dimension ref="A1:F274"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I274"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +768,7 @@
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -594,7 +788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -615,7 +809,7 @@
         <v>635.41666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -636,7 +830,7 @@
         <v>271.52542372881356</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -657,7 +851,7 @@
         <v>128.03896103896105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -678,7 +872,7 @@
         <v>307.72727272727275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -699,7 +893,7 @@
         <v>423.35294117647061</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -720,7 +914,7 @@
         <v>115.74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -741,7 +935,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -761,8 +955,11 @@
         <f>Tabela1[[#This Row],[Valor Vendido]]/Tabela1[[#This Row],[Carteira de Clientes]]</f>
         <v>147.07954545454547</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -783,7 +980,7 @@
         <v>84.888888888888886</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -804,7 +1001,7 @@
         <v>252.48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -825,7 +1022,7 @@
         <v>293.48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -846,7 +1043,7 @@
         <v>178.19718309859155</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -867,7 +1064,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -888,7 +1085,7 @@
         <v>213.10714285714286</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -4626,7 +4823,7 @@
         <v>201.93333333333334</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>1</v>
       </c>
@@ -4647,7 +4844,7 @@
         <v>223.8095238095238</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -4668,7 +4865,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>1</v>
       </c>
@@ -4689,7 +4886,7 @@
         <v>306.39534883720933</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -4710,7 +4907,7 @@
         <v>276.41428571428571</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>1</v>
       </c>
@@ -4731,7 +4928,7 @@
         <v>175.92857142857142</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -4752,7 +4949,7 @@
         <v>289.2093023255814</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>1</v>
       </c>
@@ -4773,7 +4970,7 @@
         <v>191.72093023255815</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>1</v>
       </c>
@@ -4794,7 +4991,7 @@
         <v>315.45238095238096</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>2</v>
       </c>
@@ -4815,7 +5012,7 @@
         <v>285.80769230769232</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>2</v>
       </c>
@@ -4836,7 +5033,7 @@
         <v>234.45714285714286</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>2</v>
       </c>
@@ -4857,7 +5054,7 @@
         <v>190.57575757575756</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>2</v>
       </c>
@@ -4878,7 +5075,7 @@
         <v>519.3125</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>2</v>
       </c>
@@ -4899,7 +5096,7 @@
         <v>720.79310344827582</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>2</v>
       </c>
@@ -4920,7 +5117,7 @@
         <v>151.55102040816325</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>2</v>
       </c>
@@ -4941,7 +5138,7 @@
         <v>563.94285714285718</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>2</v>
       </c>
@@ -4962,7 +5159,7 @@
         <v>106.28205128205128</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>3</v>
       </c>
@@ -4983,7 +5180,7 @@
         <v>179.29411764705881</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>3</v>
       </c>
@@ -5004,7 +5201,7 @@
         <v>127.98550724637681</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>3</v>
       </c>
@@ -5025,7 +5222,7 @@
         <v>248.14285714285714</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>3</v>
       </c>
@@ -5046,7 +5243,7 @@
         <v>84.031578947368416</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>3</v>
       </c>
@@ -5067,7 +5264,7 @@
         <v>224.91071428571428</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>3</v>
       </c>
@@ -5088,7 +5285,7 @@
         <v>319.59523809523807</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>3</v>
       </c>
@@ -5109,7 +5306,7 @@
         <v>101.04494382022472</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>3</v>
       </c>
@@ -5130,7 +5327,7 @@
         <v>307.04347826086956</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>4</v>
       </c>
@@ -5151,7 +5348,7 @@
         <v>333.76190476190476</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>4</v>
       </c>
@@ -5172,7 +5369,7 @@
         <v>103.33928571428571</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>4</v>
       </c>
@@ -5193,7 +5390,7 @@
         <v>184.6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>4</v>
       </c>
@@ -5214,7 +5411,7 @@
         <v>91.07692307692308</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>4</v>
       </c>
@@ -5235,7 +5432,7 @@
         <v>367.47169811320754</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>4</v>
       </c>
@@ -5256,7 +5453,7 @@
         <v>167.6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>4</v>
       </c>
@@ -5277,7 +5474,7 @@
         <v>149.41489361702128</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>4</v>
       </c>
@@ -5298,7 +5495,7 @@
         <v>313.71830985915494</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>5</v>
       </c>
@@ -5319,7 +5516,7 @@
         <v>284.17857142857144</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>5</v>
       </c>
@@ -5340,7 +5537,7 @@
         <v>275.84848484848487</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>5</v>
       </c>
@@ -5361,7 +5558,7 @@
         <v>229.03174603174602</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>5</v>
       </c>
@@ -5382,7 +5579,7 @@
         <v>194.70652173913044</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>5</v>
       </c>
@@ -5403,7 +5600,7 @@
         <v>271.58208955223881</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>5</v>
       </c>
@@ -5424,7 +5621,7 @@
         <v>236.44444444444446</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>5</v>
       </c>
@@ -5445,7 +5642,7 @@
         <v>172.47297297297297</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>5</v>
       </c>
@@ -5466,7 +5663,7 @@
         <v>110.0625</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>6</v>
       </c>
@@ -5487,7 +5684,7 @@
         <v>248.27272727272728</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>6</v>
       </c>
@@ -5508,7 +5705,7 @@
         <v>486.65909090909093</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>6</v>
       </c>
@@ -5529,7 +5726,7 @@
         <v>345.91304347826087</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>6</v>
       </c>
@@ -5550,7 +5747,7 @@
         <v>285.42857142857144</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>6</v>
       </c>
@@ -5571,7 +5768,7 @@
         <v>248.71212121212122</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>6</v>
       </c>
@@ -5592,7 +5789,7 @@
         <v>418.70212765957444</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>6</v>
       </c>
@@ -5613,7 +5810,7 @@
         <v>267.16666666666669</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>6</v>
       </c>
@@ -5634,7 +5831,7 @@
         <v>195.83333333333334</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>7</v>
       </c>
@@ -5655,7 +5852,7 @@
         <v>292.72000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>7</v>
       </c>
@@ -5676,7 +5873,7 @@
         <v>319.66666666666669</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>7</v>
       </c>
@@ -5697,7 +5894,7 @@
         <v>105.83908045977012</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>7</v>
       </c>
@@ -5718,7 +5915,7 @@
         <v>262.89743589743591</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>7</v>
       </c>
@@ -5739,7 +5936,7 @@
         <v>137.7948717948718</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>7</v>
       </c>
@@ -5760,7 +5957,7 @@
         <v>201.2987012987013</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>7</v>
       </c>
@@ -5781,7 +5978,7 @@
         <v>164.48275862068965</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>7</v>
       </c>
@@ -5802,7 +5999,7 @@
         <v>83.348484848484844</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>8</v>
       </c>
@@ -5823,7 +6020,7 @@
         <v>314.54838709677421</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>8</v>
       </c>
@@ -5844,7 +6041,7 @@
         <v>162.44594594594594</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>8</v>
       </c>
@@ -5865,7 +6062,7 @@
         <v>215.33333333333334</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>8</v>
       </c>
@@ -5886,7 +6083,7 @@
         <v>379.86666666666667</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>8</v>
       </c>
@@ -5907,7 +6104,7 @@
         <v>361.36</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>8</v>
       </c>
@@ -5928,7 +6125,7 @@
         <v>225.63736263736263</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>8</v>
       </c>
@@ -5949,7 +6146,7 @@
         <v>367.06521739130437</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>8</v>
       </c>
@@ -5970,7 +6167,7 @@
         <v>361.25862068965517</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>9</v>
       </c>
@@ -5991,7 +6188,7 @@
         <v>92.155555555555551</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>9</v>
       </c>
@@ -6012,7 +6209,7 @@
         <v>321.05660377358492</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>9</v>
       </c>
@@ -6033,7 +6230,7 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>9</v>
       </c>
@@ -6054,7 +6251,7 @@
         <v>554.74285714285713</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>9</v>
       </c>
@@ -6075,7 +6272,7 @@
         <v>267.29268292682929</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>9</v>
       </c>
@@ -6096,7 +6293,7 @@
         <v>255.52173913043478</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>9</v>
       </c>
@@ -6117,7 +6314,7 @@
         <v>182.28358208955223</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>9</v>
       </c>
@@ -6138,7 +6335,7 @@
         <v>292.38235294117646</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>10</v>
       </c>
@@ -6159,7 +6356,7 @@
         <v>171.77500000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>10</v>
       </c>
@@ -6180,7 +6377,7 @@
         <v>257.40740740740739</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>10</v>
       </c>
@@ -6201,7 +6398,7 @@
         <v>199.83695652173913</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>10</v>
       </c>
@@ -6222,7 +6419,7 @@
         <v>361.63636363636363</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>10</v>
       </c>
@@ -6243,7 +6440,7 @@
         <v>89.615384615384613</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>10</v>
       </c>
@@ -6264,7 +6461,7 @@
         <v>160.07291666666666</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>10</v>
       </c>
@@ -6285,7 +6482,7 @@
         <v>222.03157894736842</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>10</v>
       </c>
@@ -6313,18 +6510,26 @@
       <c r="B274" s="5"/>
       <c r="D274" s="6">
         <f>SUBTOTAL(109,Tabela1[Carteira de Clientes])</f>
-        <v>15428</v>
+        <v>10823</v>
       </c>
       <c r="E274" s="7">
         <f>SUBTOTAL(109,Tabela1[Valor Vendido])</f>
-        <v>3567273</v>
+        <v>2516005</v>
       </c>
       <c r="F274"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>